--- a/Tarun-annotations/SCHL_Q4_2015.xlsx
+++ b/Tarun-annotations/SCHL_Q4_2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmand\Desktop\CS\VIP\SubjECTive-QA\Tarun-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmandapati/Desktop/VIP/Annotate/SubjECTive-QA/Tarun-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B00096F-93B3-45DC-A0E0-DE74A5559BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1134C2E-9902-4D4E-81A0-5CE1A9FF39C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2550" windowWidth="19170" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2560" windowWidth="19180" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,12 +497,12 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -547,25 +548,25 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -579,25 +580,25 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -611,25 +612,25 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -643,25 +644,25 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -675,25 +676,25 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -707,25 +708,25 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -739,25 +740,25 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -771,25 +772,25 @@
         <v>29</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -803,25 +804,25 @@
         <v>32</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -835,25 +836,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -867,22 +868,22 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
